--- a/notes/notes.xlsx
+++ b/notes/notes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="2120" windowWidth="25600" windowHeight="14580"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Paper name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -333,12 +333,70 @@
   <si>
     <t xml:space="preserve">To address this concern, in this paper we demonstrate two contri- butions. The first is a toolchain — PerfCI — which allows developers to easily carry out performance testing under CI of Python-based projects. PerfCI runs an extended version of VyPR [11], a perfor- mance analysis framework based on Runtime Verification [1], by default with the possibility of easily configuring additional analyses. The second contribution is an extension of the analysis facilities provided by VyPR to allow querying performance data with re- spect to individual unit test executions. This will provide actionable feedback to developers, i.e., information that allows for the identifi- cation of optimization opportunities. </t>
   </si>
+  <si>
+    <t>Demystifying Diehard Android Apps(ASE'2020)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hao Zhou (The Hong Kong Polytechnic University), Haoyu Wang (Beijing University of Posts and Telecommunications)</t>
+  </si>
+  <si>
+    <t>detect diehard apps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI Obfuscation and Its Effects on Automated UI Analysis for Android Apps(ASE'2020)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hao Zhou (The Hong Kong Polytechnic University), Ting Chen (University of Electronic Science and Technology of China)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance Bugs, Software Mining </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> we manually analyze 300 bug reports from three large open source projects - Apache HTTP Server, MySQL, and Mozilla Firefox. We found that 1) exposing performance bugs often requires combinations of multiple input parameters, and 2) certain input parameters are frequently involved in exposing performance bugs. 
+Guided by these findings, we designed and evaluated an auto- mated approach, PerfLearner, to extract execution commands and input parameters from descriptions of performance bug reports and use them to generate test frames for guiding actual performance test case generation. 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">While there has been some research on automated performance testing such as test case gen- eration, the main idea is to select workload values to increase the program execution times. These techniques often assume the initial test cases have the right combination of input parameters and focus on evolving values of certain input parameters. However, such an assumption may not hold for highly configurable real-word appli- cations, in which the combinations of input parameters can be very large. In this paper, we manually analyze 300 bug reports from three large open source projects - Apache HTTP Server, MySQL, and Mozilla Firefox. We found that 1) exposing performance bugs often requires combinations of multiple input parameters, and 2) certain input parameters are frequently involved in exposing performance bugs. </t>
+  </si>
+  <si>
+    <t>PerfLearner: Learning from Bug Reports to Understand and Generate Performance Test Frames (ASE'18)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Xue Han </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t>Department of Computer Science University of Kentucky 
+Tingting Yu Department of Computer Science University of Kentucky
+David Lo
+School of Information Systems Singapore Management University</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Our main idea is to mine information from the application’s bug reports to identify commands (i.e., commands for executing the program) and input parameters (i.e., configuration options and data inputs) that have caused performance bugs and use them to generate test frames for testing newer versions of the application. 
+Specifically, we extract and rank commands and input parameters from each bug report. We then generate test frames (a combination of the commands and input parameters) for each bug report and prioritize the most frequently generated test frames among all bug reports. Our hypothesis includes: 1) bug reports contain a specific set of vocabulary related to commands and input parameters that can make the automated text extraction possible; 2) commands and input parameters appearing frequently in performance bug reports may be more likely to trigger performance bugs than the infrequent ones. PerfLearner is applicable software projects with established issue tracking systems. 
+In this research, we manually identified and analyzed 300 perfor- mance bug reports from three popular open source projects. We discovered that it is possible to leverage information retrieval and natural language processing techniques to extract commands and input parameters from bug reports. We found that some input parameters are more likely to cause performance bugs and should be used with higher priority in performance testing. Based on our findings, we develop PerfLearner, an approach that combines natu- ral language processing and information retrieval to automatically extract relevant commands and input parameters from bug reports and use them to generate performance test frames for guiding per- formance testing. 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,6 +507,26 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="LinLibertineT"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="LinLibertineT"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="LinLibertineT"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="LinLibertineT"/>
     </font>
   </fonts>
   <fills count="2">
@@ -472,7 +550,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -518,6 +596,15 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -800,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -891,7 +978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="234" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="180" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
@@ -929,6 +1016,46 @@
       <c r="G6" s="2" t="s">
         <v>32</v>
       </c>
+    </row>
+    <row r="7" spans="1:8" ht="162" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="336" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -936,6 +1063,8 @@
     <hyperlink ref="A4" r:id="rId1" display="Mastering Uncertainty in Performance Estimations of Configurable Software Systems"/>
     <hyperlink ref="A5" r:id="rId2" display="Understanding Performance Concerns in the API Documentation of Data Science Libraries"/>
     <hyperlink ref="A6" r:id="rId3" display="PerfCI: A Toolchain for Automated Performance Testing during Continuous Integration of Python Projects"/>
+    <hyperlink ref="A7" r:id="rId4" display="Demystifying Diehard Android Apps"/>
+    <hyperlink ref="A8" r:id="rId5" display="UI Obfuscation and Its Effects on Automated UI Analysis for Android Apps"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes/notes.xlsx
+++ b/notes/notes.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="6" r:id="rId1"/>
+    <sheet name="android" sheetId="7" r:id="rId2"/>
+    <sheet name="工作表3" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>Paper name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,12 +393,562 @@
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">Discovering UI Display Issues with Visual Understanding (ASE'2020) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhe Liu
+Institute of Software Chinese Academy of Sciences, University of Chinese Academy of Sciencesd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UI Display Issues </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t>display issues</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve"> such as text overlap, blurred screen, missing image always occur during GUI rendering on difference devices due to the software or hardware compatibility. They negatively influence the app usability, resulting in poor user experience. 
+To detect these issues, we propose a novel approach, OwlEye, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t>based on deep learning for modelling visual information of the GUI screenshot.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve">Therefore, OwlEye can detect GUIs with display issues and also locate the detailed region of the issue in the given GUI for guiding developers to fix the bug.
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">We manually construct a large-scale labelled dataset with 4,470 GUI screenshots with UI display issues. 
+We develop a heuristics-based data augmentation method and a GAN-based data augmentation method for boosting the performance of our OwlEye.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t>the common categories of UI display issues</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve"> include </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineTI"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">component occlusion, text overlap, missing image, null value </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineTI"/>
+        <family val="1"/>
+      </rPr>
+      <t>blurred screen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve">. 
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revealing Injection Vulnerabilities by Leveraging Existing Tests (ICSE'20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Katherine Hough</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+        <family val="1"/>
+      </rPr>
+      <t>, Gebrehiwet Welearegai</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+        <family val="1"/>
+      </rPr>
+      <t>, Christian Hammer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+        <family val="1"/>
+      </rPr>
+      <t>and Jonathan Bell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve">George Mason University, Fairfax, VA, USA
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This paper describes a new approach for detecting injection vulnerabilities in applications </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve">by harnessing the combined power of human developers’ test suites and automated dynamic analysis. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve">
+Our new approach, Rivulet, monitors the execution of developer- written functional tests in order to detect information flows that may be vulnerable to attack. Then, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t>Rivulet uses a white-box test generation technique to repurpose those functional tests to check if any vulnerable flow could be exploited.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Our key idea is to use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve">dynamic taint tracking </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="LinLibertineTI"/>
+        <family val="1"/>
+      </rPr>
+      <t>before deployment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineTI"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve">to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve">amplify developer-written tests </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve">to check for injection vulnera- bilities. These integration tests typically perform functional checks. Our approach re-executes these existing test cases, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineTI"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">mutating </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t>values that are controlled by users (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineTI"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t>parts of each of the test’s HTTP requests) and detecting when these mutated values result in real attacks</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Key to our test amplification approach is a white-box </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineTI"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">context- sensitive </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve">input generation strategy. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t>For each user-controlled value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve">, state-of-the-art testing tools generate hundreds of attack strings to test the application [32, 49, 50]. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve">By leveraging the context of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="LinLibertineTI"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">how </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t>that user-controlled value is used in security-sensitive parts of the application, we can trivially rule out most of the candidate attack strings for any given value, reducing the number of values to check by orders of magnitude. Our testing-based approach borrows ideas from both fuzzing and regression testing, and is language agnostic. 通过利用在应用程序的安全敏感部分中如何使用用户控制的值的上下文，我们可以简单地排除任何给定值的大多数候选攻击字符串，从而将要检查的值的数量减少一个数量级。我们基于测试的方法借鉴了模糊测试和回归测试的思想，并且是语言不可知的。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值得看</t>
+    <rPh sb="0" eb="1">
+      <t>zhi de</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现</t>
+    <rPh sb="0" eb="1">
+      <t>shi x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t>implemented this approach in the JVM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve">, creating a tool that we call Rivulet. Rivulet Reveals Injection VUlnerabilities by Leverag- ing Existing Tests, and does not require access to application source code, and runs in commodity, off-the-shelf JVMs, integrating di- rectly with the popular build automation platform </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineTI"/>
+        <family val="1"/>
+      </rPr>
+      <t>Maven</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A technique for re-using functional test cases to detect secu- rity vulnerabilities by modifying their inputs and oracles </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">First, Rivulet uses </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t>dynamic taint tracking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve"> while running each test to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t>observe data flows from “sources,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve">” untrusted system inputs con- trolled by a potentially malicious actor, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t>to “sinks,” sensitive parts of an application that may be vulnerable to injection attacks.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve"> These source-sink flows do not necessarily represent vulnerabilities: it is possible that a sanitizer function correctly protects the application. Hence, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t>when a source-sink flow is observed, Rivulet generates malicious payloads based on contextual information of the sink method.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve">Then, tests are re-executed and those untrusted source values are replaced with generated payloads, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t>probing for weak or missing sanitizers. Lastly,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve"> specialized logic based on the type of vulnerability, e.g., XSS, is used as an oracle to determine whether a re-execution demonstrates a successful attack, thereby transform- ing a functional test into a security test.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve"> In this way, source-sink flows are verified as vulnerable only if a successful attack can be demonstrated using a concrete exploit. This standard produces few false positives. Test reruns enable our technique to consider input sanitization and validation without requiring sanitization and validation methods to be explicitly speci- fied or modeled. Verifying whether a sanitizer or validator is correct in all cases is a hard problem and beyond the scope of this work. However, if a system sanitizes or validates input improperly before it flows into a sink method, then one of the malicious payloads may be able to demonstrate a successful attack, causing the flow to be verified. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,6 +1079,41 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="LinLibertineT"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="LinLibertineT"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="LinLibertineT"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="LinLibertineTI"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="LinLibertineT"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="LinLibertineTI"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -550,7 +1137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -605,6 +1192,18 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -887,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -903,10 +1502,11 @@
     <col min="6" max="6" width="63.33203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="67.1640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="26.1640625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="3"/>
+    <col min="9" max="9" width="49.1640625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -931,8 +1531,11 @@
       <c r="H1" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="I1" s="22" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="240" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="240" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -958,7 +1561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="192" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
@@ -978,7 +1581,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="180" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="180" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
@@ -989,7 +1592,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="256" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>25</v>
       </c>
@@ -1000,7 +1603,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="238" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="238" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
         <v>28</v>
       </c>
@@ -1017,7 +1620,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="162" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="162" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>33</v>
       </c>
@@ -1028,7 +1631,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>36</v>
       </c>
@@ -1036,7 +1639,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="336" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="336" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>41</v>
       </c>
@@ -1056,6 +1659,38 @@
         <v>43</v>
       </c>
       <c r="H9" s="18"/>
+    </row>
+    <row r="11" spans="1:9" ht="409" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1068,4 +1703,95 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="59.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" customWidth="1"/>
+    <col min="5" max="5" width="37.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="43.5" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="23" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="360" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/notes/notes.xlsx
+++ b/notes/notes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580"/>
+    <workbookView xWindow="4540" yWindow="460" windowWidth="25600" windowHeight="14580"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t>Paper name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -943,12 +943,321 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">Lukas Kirschner CISPA – Helmholtz Center for Information Security Saarbrücken, Germany </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When a program fails to process an input, it need not be the pro- gram code that is at fault. It can also be that the input data is faulty, for instance as result of data corruption. To get the data processed, one then has to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineTI"/>
+        <family val="1"/>
+      </rPr>
+      <t>debug the input data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve">—that is, (1) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineTI"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">identify </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve">which parts of the input data prevent processing, and (2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineTI"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">recover </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve">as much of the (valuable) input data as possible. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In this paper, we </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve">introduce a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="LinLibertineTI"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">generic input repair method </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve">that automatically (1) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="LinLibertineTI"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">identifies </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t>which parts of the input data prevent processing,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve"> and (2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="LinLibertineTI"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">recovers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t>as much of the (valuable) input data as possible</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve">. Like </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineTI"/>
+        <family val="1"/>
+      </rPr>
+      <t>ddmin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve"> our approach runs the program under test repeatedly with different subsets of the input, assessing whether the subset can be processed or not.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve"> Also, it does not need any kind of program analysis and can thus be used in a wide range of settings. Unlike </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineTI"/>
+        <family val="1"/>
+      </rPr>
+      <t>ddmin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve">, however, which aims at minimizing the failure-inducing input, our </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineTI"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">ddmax </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve">algorithm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve">aims at </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="LinLibertineTI"/>
+        <family val="1"/>
+      </rPr>
+      <t>maximizing the passing input. Its result is a subset of the input that (1) can be successfully processed and (2) is 1-maximal: no further element from the failing input can be added without causing the input to become invalid again</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">An efficient syntactical input repair technique. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve">We introduce a variant of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineTI"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">ddmax </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve">that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve">makes use of a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="LinLibertineTI"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">grammar </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve">to parse in- puts into derivation trees and to maximize inputs by pruning parts of the tree that could not be read (Section 4); this vastly speeds up input repair. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve">In its evaluation, syntactic </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineTI"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">ddmax </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="LinLibertineT"/>
+      </rPr>
+      <t xml:space="preserve">is faster and more efficient than the lexical variant. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debugging Inputs （ICSE"20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1114,6 +1423,18 @@
       <name val="等线"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="LinLibertineTB"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FFFF0000"/>
+      <name val="LinBiolinumTB"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1137,7 +1458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1199,11 +1520,14 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1488,8 +1812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1531,7 +1855,7 @@
       <c r="H1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1689,8 +2013,22 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="21"/>
+    <row r="12" spans="1:9" ht="216" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
